--- a/biology/Neurosciences/Noyau_pédonculopontin/Noyau_pédonculopontin.xlsx
+++ b/biology/Neurosciences/Noyau_pédonculopontin/Noyau_pédonculopontin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Noyau_p%C3%A9donculopontin</t>
+          <t>Noyau_pédonculopontin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau pédonculopontin est une structure du tronc cérébral; un noyau pair, allongé et situé dans la région ventro-latérale du tegmentum pontique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Noyau_p%C3%A9donculopontin</t>
+          <t>Noyau_pédonculopontin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'étend rostralement de la région rétro-rubrale qui le sépare de la substance noire ventrale, et caudalement jusqu'au noyau parabrachial du pont. Il est bordé médialement par le pédoncule cérébelleux supérieur. Il se compose de deux régions : 
 la pars compacta ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Noyau_p%C3%A9donculopontin</t>
+          <t>Noyau_pédonculopontin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il contribue à :
 la locomotricité (initiation, arrêt et rythmicité) ;
